--- a/TestData/Labour.xlsx
+++ b/TestData/Labour.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12820" windowHeight="3480" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10730" windowHeight="3480" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>Url</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>SHRI@GN.COM</t>
+  </si>
+  <si>
+    <t>admin@1234</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1194,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1220,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
